--- a/web/resources/excel/template.xlsx
+++ b/web/resources/excel/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryouhei\Documents\NetBeansProjects\jobsheet\web\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryouhei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A33994-C765-4CDB-AF93-2D980DF81C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1339090D-96EB-4343-8822-43A89C630309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="3720" windowWidth="17145" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -164,6 +164,10 @@
     <rPh sb="3" eb="5">
       <t>クブン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,82 +517,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="35.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="35.875" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="30.75" customWidth="1"/>
-    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.75" customWidth="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
